--- a/src/main/webapp/STATIC/接口设计/THIS.xlsx
+++ b/src/main/webapp/STATIC/接口设计/THIS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>名称</t>
   </si>
@@ -146,13 +146,17 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,11 +206,11 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +523,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -547,7 +551,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -556,26 +560,28 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -588,7 +594,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -601,7 +607,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +620,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +633,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +646,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
@@ -653,7 +659,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,7 +672,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,7 +685,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>

--- a/src/main/webapp/STATIC/接口设计/THIS.xlsx
+++ b/src/main/webapp/STATIC/接口设计/THIS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>名称</t>
   </si>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>int userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base/{loginName}/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -551,81 +559,78 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -635,71 +640,84 @@
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:E1"/>
   <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
